--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3977,28 +3977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3460.709758607802</v>
+        <v>3641.925230966935</v>
       </c>
       <c r="AB2" t="n">
-        <v>4735.095767466702</v>
+        <v>4983.042771410887</v>
       </c>
       <c r="AC2" t="n">
-        <v>4283.18487316815</v>
+        <v>4507.468163051698</v>
       </c>
       <c r="AD2" t="n">
-        <v>3460709.758607802</v>
+        <v>3641925.230966934</v>
       </c>
       <c r="AE2" t="n">
-        <v>4735095.767466702</v>
+        <v>4983042.771410887</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.234000283595461e-07</v>
+        <v>1.042900078130764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.01171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4283184.87316815</v>
+        <v>4507468.163051698</v>
       </c>
     </row>
     <row r="3">
@@ -4083,28 +4083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1652.102781211108</v>
+        <v>1772.884589493305</v>
       </c>
       <c r="AB3" t="n">
-        <v>2260.479910883736</v>
+        <v>2425.738909492751</v>
       </c>
       <c r="AC3" t="n">
-        <v>2044.742880792472</v>
+        <v>2194.229792516704</v>
       </c>
       <c r="AD3" t="n">
-        <v>1652102.781211108</v>
+        <v>1772884.589493305</v>
       </c>
       <c r="AE3" t="n">
-        <v>2260479.910883735</v>
+        <v>2425738.909492751</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.140466100466166e-06</v>
+        <v>1.644169392664852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.650390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2044742.880792472</v>
+        <v>2194229.792516704</v>
       </c>
     </row>
     <row r="4">
@@ -4189,28 +4189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1343.260546000429</v>
+        <v>1446.690367345639</v>
       </c>
       <c r="AB4" t="n">
-        <v>1837.908339510682</v>
+        <v>1979.425584076875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1662.500947108337</v>
+        <v>1790.511984473833</v>
       </c>
       <c r="AD4" t="n">
-        <v>1343260.546000429</v>
+        <v>1446690.367345639</v>
       </c>
       <c r="AE4" t="n">
-        <v>1837908.339510682</v>
+        <v>1979425.584076875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.300122017928069e-06</v>
+        <v>1.874339647389118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.37565104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1662500.947108337</v>
+        <v>1790511.984473833</v>
       </c>
     </row>
     <row r="5">
@@ -4295,28 +4295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200.954940404584</v>
+        <v>1304.384672241243</v>
       </c>
       <c r="AB5" t="n">
-        <v>1643.199531854214</v>
+        <v>1784.716653950858</v>
       </c>
       <c r="AC5" t="n">
-        <v>1486.374874779074</v>
+        <v>1614.385801363344</v>
       </c>
       <c r="AD5" t="n">
-        <v>1200954.940404584</v>
+        <v>1304384.672241243</v>
       </c>
       <c r="AE5" t="n">
-        <v>1643199.531854214</v>
+        <v>1784716.653950858</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.387139161246486e-06</v>
+        <v>1.999789166338249e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.91080729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1486374.874779074</v>
+        <v>1614385.801363344</v>
       </c>
     </row>
     <row r="6">
@@ -4401,28 +4401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1131.444816296667</v>
+        <v>1217.778583760053</v>
       </c>
       <c r="AB6" t="n">
-        <v>1548.092713479514</v>
+        <v>1666.218382899929</v>
       </c>
       <c r="AC6" t="n">
-        <v>1400.344917666798</v>
+        <v>1507.196838988147</v>
       </c>
       <c r="AD6" t="n">
-        <v>1131444.816296667</v>
+        <v>1217778.583760053</v>
       </c>
       <c r="AE6" t="n">
-        <v>1548092.713479514</v>
+        <v>1666218.382899929</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.439330774030816e-06</v>
+        <v>2.0750319572101e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.11653645833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1400344.917666798</v>
+        <v>1507196.838988147</v>
       </c>
     </row>
     <row r="7">
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1071.92819893772</v>
+        <v>1166.809903833467</v>
       </c>
       <c r="AB7" t="n">
-        <v>1466.659451921156</v>
+        <v>1596.480786444912</v>
       </c>
       <c r="AC7" t="n">
-        <v>1326.68353229927</v>
+        <v>1444.114900861466</v>
       </c>
       <c r="AD7" t="n">
-        <v>1071928.19893772</v>
+        <v>1166809.903833467</v>
       </c>
       <c r="AE7" t="n">
-        <v>1466659.451921156</v>
+        <v>1596480.786444912</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.475556795068955e-06</v>
+        <v>2.127257722609524e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.595703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1326683.53229927</v>
+        <v>1444114.900861466</v>
       </c>
     </row>
     <row r="8">
@@ -4613,28 +4613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1032.350925174144</v>
+        <v>1118.599351782959</v>
       </c>
       <c r="AB8" t="n">
-        <v>1412.508079931741</v>
+        <v>1530.516982229959</v>
       </c>
       <c r="AC8" t="n">
-        <v>1277.700291250597</v>
+        <v>1384.446589540007</v>
       </c>
       <c r="AD8" t="n">
-        <v>1032350.925174144</v>
+        <v>1118599.351782958</v>
       </c>
       <c r="AE8" t="n">
-        <v>1412508.079931741</v>
+        <v>1530516.982229959</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.503566605149991e-06</v>
+        <v>2.167638469052377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.21158854166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1277700.291250597</v>
+        <v>1384446.589540007</v>
       </c>
     </row>
     <row r="9">
@@ -4719,28 +4719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>991.9321007061852</v>
+        <v>1086.72846474736</v>
       </c>
       <c r="AB9" t="n">
-        <v>1357.205261141993</v>
+        <v>1486.909828543551</v>
       </c>
       <c r="AC9" t="n">
-        <v>1227.675495868149</v>
+        <v>1345.001241398405</v>
       </c>
       <c r="AD9" t="n">
-        <v>991932.1007061852</v>
+        <v>1086728.46474736</v>
       </c>
       <c r="AE9" t="n">
-        <v>1357205.261141993</v>
+        <v>1486909.828543551</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.524013766509147e-06</v>
+        <v>2.19711641395566e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.94140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1227675.495868149</v>
+        <v>1345001.241398406</v>
       </c>
     </row>
     <row r="10">
@@ -4825,28 +4825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>960.9401989916537</v>
+        <v>1047.273876946489</v>
       </c>
       <c r="AB10" t="n">
-        <v>1314.800773949964</v>
+        <v>1432.926320900831</v>
       </c>
       <c r="AC10" t="n">
-        <v>1189.318033418655</v>
+        <v>1296.169843958777</v>
       </c>
       <c r="AD10" t="n">
-        <v>960940.1989916537</v>
+        <v>1047273.876946489</v>
       </c>
       <c r="AE10" t="n">
-        <v>1314800.773949964</v>
+        <v>1432926.320900831</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.53923242998651e-06</v>
+        <v>2.219056619522944e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.74609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1189318.033418655</v>
+        <v>1296169.843958777</v>
       </c>
     </row>
     <row r="11">
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>934.652062014265</v>
+        <v>1020.9857399691</v>
       </c>
       <c r="AB11" t="n">
-        <v>1278.832185186749</v>
+        <v>1396.957732137615</v>
       </c>
       <c r="AC11" t="n">
-        <v>1156.782236284769</v>
+        <v>1263.634046824892</v>
       </c>
       <c r="AD11" t="n">
-        <v>934652.062014265</v>
+        <v>1020985.7399691</v>
       </c>
       <c r="AE11" t="n">
-        <v>1278832.185186749</v>
+        <v>1396957.732137615</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55277050485901e-06</v>
+        <v>2.238573980303656e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.57356770833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1156782.236284769</v>
+        <v>1263634.046824892</v>
       </c>
     </row>
     <row r="12">
@@ -5037,28 +5037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>913.2428069691703</v>
+        <v>999.405892723413</v>
       </c>
       <c r="AB12" t="n">
-        <v>1249.539097924378</v>
+        <v>1367.431233100397</v>
       </c>
       <c r="AC12" t="n">
-        <v>1130.284840157613</v>
+        <v>1236.925515415084</v>
       </c>
       <c r="AD12" t="n">
-        <v>913242.8069691702</v>
+        <v>999405.892723413</v>
       </c>
       <c r="AE12" t="n">
-        <v>1249539.097924378</v>
+        <v>1367431.233100397</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.561827010118545e-06</v>
+        <v>2.251630421653512e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.45963541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1130284.840157613</v>
+        <v>1236925.515415084</v>
       </c>
     </row>
     <row r="13">
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>905.3877964532689</v>
+        <v>991.5508822075117</v>
       </c>
       <c r="AB13" t="n">
-        <v>1238.791525997915</v>
+        <v>1356.683661173935</v>
       </c>
       <c r="AC13" t="n">
-        <v>1120.5630014115</v>
+        <v>1227.203676668971</v>
       </c>
       <c r="AD13" t="n">
-        <v>905387.796453269</v>
+        <v>991550.8822075117</v>
       </c>
       <c r="AE13" t="n">
-        <v>1238791.525997915</v>
+        <v>1356683.661173935</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.566308579731511e-06</v>
+        <v>2.258091341084369e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.404296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1120563.0014115</v>
+        <v>1227203.676668971</v>
       </c>
     </row>
     <row r="14">
@@ -5249,28 +5249,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>910.0373348026147</v>
+        <v>996.2004205568575</v>
       </c>
       <c r="AB14" t="n">
-        <v>1245.153229490645</v>
+        <v>1363.045364666664</v>
       </c>
       <c r="AC14" t="n">
-        <v>1126.317552851591</v>
+        <v>1232.958228109062</v>
       </c>
       <c r="AD14" t="n">
-        <v>910037.3348026148</v>
+        <v>996200.4205568575</v>
       </c>
       <c r="AE14" t="n">
-        <v>1245153.229490645</v>
+        <v>1363045.364666665</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.565281553361873e-06</v>
+        <v>2.256610713714798e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.41731770833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1126317.552851591</v>
+        <v>1232958.228109062</v>
       </c>
     </row>
   </sheetData>
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2412.168641355172</v>
+        <v>2563.511673144635</v>
       </c>
       <c r="AB2" t="n">
-        <v>3300.43555247223</v>
+        <v>3507.509765349924</v>
       </c>
       <c r="AC2" t="n">
-        <v>2985.446615534547</v>
+        <v>3172.757956165668</v>
       </c>
       <c r="AD2" t="n">
-        <v>2412168.641355172</v>
+        <v>2563511.673144635</v>
       </c>
       <c r="AE2" t="n">
-        <v>3300435.55247223</v>
+        <v>3507509.765349924</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.870444968651955e-07</v>
+        <v>1.29859977372553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.44596354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2985446.615534547</v>
+        <v>3172757.956165669</v>
       </c>
     </row>
     <row r="3">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1331.31038280883</v>
+        <v>1440.651548169298</v>
       </c>
       <c r="AB3" t="n">
-        <v>1821.557599027945</v>
+        <v>1971.163005265906</v>
       </c>
       <c r="AC3" t="n">
-        <v>1647.710698348864</v>
+        <v>1783.037974587981</v>
       </c>
       <c r="AD3" t="n">
-        <v>1331310.38280883</v>
+        <v>1440651.548169298</v>
       </c>
       <c r="AE3" t="n">
-        <v>1821557.599027945</v>
+        <v>1971163.005265906</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274836706677234e-06</v>
+        <v>1.866312980553493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1647710.698348864</v>
+        <v>1783037.974587981</v>
       </c>
     </row>
     <row r="4">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1116.981877478771</v>
+        <v>1209.488285237784</v>
       </c>
       <c r="AB4" t="n">
-        <v>1528.303882529039</v>
+        <v>1654.875230719601</v>
       </c>
       <c r="AC4" t="n">
-        <v>1382.444704968438</v>
+        <v>1496.936261331696</v>
       </c>
       <c r="AD4" t="n">
-        <v>1116981.877478771</v>
+        <v>1209488.285237784</v>
       </c>
       <c r="AE4" t="n">
-        <v>1528303.882529039</v>
+        <v>1654875.230719601</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41855645965365e-06</v>
+        <v>2.076713292324354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.16471354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1382444.704968438</v>
+        <v>1496936.261331696</v>
       </c>
     </row>
     <row r="5">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1014.598683865948</v>
+        <v>1098.773008924529</v>
       </c>
       <c r="AB5" t="n">
-        <v>1388.218680200254</v>
+        <v>1503.389705254541</v>
       </c>
       <c r="AC5" t="n">
-        <v>1255.729037739096</v>
+        <v>1359.90830180575</v>
       </c>
       <c r="AD5" t="n">
-        <v>1014598.683865948</v>
+        <v>1098773.008924529</v>
       </c>
       <c r="AE5" t="n">
-        <v>1388218.680200254</v>
+        <v>1503389.705254541</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.495438800627594e-06</v>
+        <v>2.189266147277046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.025390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1255729.037739096</v>
+        <v>1359908.30180575</v>
       </c>
     </row>
     <row r="6">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>947.7662885491563</v>
+        <v>1031.855272753166</v>
       </c>
       <c r="AB6" t="n">
-        <v>1296.775648490629</v>
+        <v>1411.829906422717</v>
       </c>
       <c r="AC6" t="n">
-        <v>1173.013200634736</v>
+        <v>1277.086841669451</v>
       </c>
       <c r="AD6" t="n">
-        <v>947766.2885491564</v>
+        <v>1031855.272753166</v>
       </c>
       <c r="AE6" t="n">
-        <v>1296775.648490629</v>
+        <v>1411829.906422717</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.542476112253612e-06</v>
+        <v>2.258127002003128e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.38411458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1173013.200634736</v>
+        <v>1277086.841669451</v>
       </c>
     </row>
     <row r="7">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>894.094001430877</v>
+        <v>986.5149788267671</v>
       </c>
       <c r="AB7" t="n">
-        <v>1223.338857401206</v>
+        <v>1349.793316000023</v>
       </c>
       <c r="AC7" t="n">
-        <v>1106.585113817704</v>
+        <v>1220.970936367797</v>
       </c>
       <c r="AD7" t="n">
-        <v>894094.001430877</v>
+        <v>986514.9788267671</v>
       </c>
       <c r="AE7" t="n">
-        <v>1223338.857401206</v>
+        <v>1349793.316000023</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.572900656734507e-06</v>
+        <v>2.302667390583653e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.990234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1106585.113817704</v>
+        <v>1220970.936367797</v>
       </c>
     </row>
     <row r="8">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>853.2172642000208</v>
+        <v>937.3914997500511</v>
       </c>
       <c r="AB8" t="n">
-        <v>1167.409502167577</v>
+        <v>1282.580404752315</v>
       </c>
       <c r="AC8" t="n">
-        <v>1055.993577750229</v>
+        <v>1160.172731035657</v>
       </c>
       <c r="AD8" t="n">
-        <v>853217.2642000208</v>
+        <v>937391.4997500512</v>
       </c>
       <c r="AE8" t="n">
-        <v>1167409.502167577</v>
+        <v>1282580.404752315</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.599075423573626e-06</v>
+        <v>2.340986264568803e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1055993.57775023</v>
+        <v>1160172.731035657</v>
       </c>
     </row>
     <row r="9">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>832.2295896475262</v>
+        <v>916.4038251975566</v>
       </c>
       <c r="AB9" t="n">
-        <v>1138.693239934</v>
+        <v>1253.864142518737</v>
       </c>
       <c r="AC9" t="n">
-        <v>1030.017955280698</v>
+        <v>1134.197108566125</v>
       </c>
       <c r="AD9" t="n">
-        <v>832229.5896475262</v>
+        <v>916403.8251975565</v>
       </c>
       <c r="AE9" t="n">
-        <v>1138693.239934</v>
+        <v>1253864.142518738</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.610762312088509e-06</v>
+        <v>2.358095429706084e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.51822916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1030017.955280698</v>
+        <v>1134197.108566125</v>
       </c>
     </row>
     <row r="10">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>828.6034533400547</v>
+        <v>912.6070966894928</v>
       </c>
       <c r="AB10" t="n">
-        <v>1133.731800264274</v>
+        <v>1248.669291074165</v>
       </c>
       <c r="AC10" t="n">
-        <v>1025.530028449626</v>
+        <v>1129.498046452403</v>
       </c>
       <c r="AD10" t="n">
-        <v>828603.4533400547</v>
+        <v>912607.0966894928</v>
       </c>
       <c r="AE10" t="n">
-        <v>1133731.800264274</v>
+        <v>1248669.291074165</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.613949645319841e-06</v>
+        <v>2.362761565652615e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1025530.028449626</v>
+        <v>1129498.046452403</v>
       </c>
     </row>
     <row r="11">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>831.6309744055125</v>
+        <v>915.6346177549506</v>
       </c>
       <c r="AB11" t="n">
-        <v>1137.874188150836</v>
+        <v>1252.811678960727</v>
       </c>
       <c r="AC11" t="n">
-        <v>1029.277072650173</v>
+        <v>1133.245090652949</v>
       </c>
       <c r="AD11" t="n">
-        <v>831630.9744055124</v>
+        <v>915634.6177549505</v>
       </c>
       <c r="AE11" t="n">
-        <v>1137874.188150836</v>
+        <v>1252811.678960727</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.614529160452811e-06</v>
+        <v>2.36360995400653e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.47265625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1029277.072650173</v>
+        <v>1133245.090652949</v>
       </c>
     </row>
   </sheetData>
@@ -6797,28 +6797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>969.5692121399547</v>
+        <v>1070.458624830501</v>
       </c>
       <c r="AB2" t="n">
-        <v>1326.607370424662</v>
+        <v>1464.648715794625</v>
       </c>
       <c r="AC2" t="n">
-        <v>1199.99782489647</v>
+        <v>1324.864698006569</v>
       </c>
       <c r="AD2" t="n">
-        <v>969569.2121399548</v>
+        <v>1070458.624830501</v>
       </c>
       <c r="AE2" t="n">
-        <v>1326607.370424662</v>
+        <v>1464648.715794625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415203298816442e-06</v>
+        <v>2.189494185937634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1199997.82489647</v>
+        <v>1324864.698006569</v>
       </c>
     </row>
     <row r="3">
@@ -6903,28 +6903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>687.2022164120091</v>
+        <v>772.5570516340759</v>
       </c>
       <c r="AB3" t="n">
-        <v>940.2603897170177</v>
+        <v>1057.046640857417</v>
       </c>
       <c r="AC3" t="n">
-        <v>850.52325778617</v>
+        <v>956.1635930282629</v>
       </c>
       <c r="AD3" t="n">
-        <v>687202.2164120091</v>
+        <v>772557.0516340759</v>
       </c>
       <c r="AE3" t="n">
-        <v>940260.3897170176</v>
+        <v>1057046.640857417</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.690785877071993e-06</v>
+        <v>2.61585445045995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.74869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>850523.25778617</v>
+        <v>956163.5930282628</v>
       </c>
     </row>
     <row r="4">
@@ -7009,28 +7009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>649.93014127808</v>
+        <v>727.517777274458</v>
       </c>
       <c r="AB4" t="n">
-        <v>889.2630921908716</v>
+        <v>995.4219186860381</v>
       </c>
       <c r="AC4" t="n">
-        <v>804.393070760763</v>
+        <v>900.4202478500794</v>
       </c>
       <c r="AD4" t="n">
-        <v>649930.1412780799</v>
+        <v>727517.777274458</v>
       </c>
       <c r="AE4" t="n">
-        <v>889263.0921908716</v>
+        <v>995421.9186860381</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.736590568412865e-06</v>
+        <v>2.686719961770855e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.20182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>804393.0707607629</v>
+        <v>900420.2478500793</v>
       </c>
     </row>
   </sheetData>
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1360.404744625497</v>
+        <v>1480.556045592523</v>
       </c>
       <c r="AB2" t="n">
-        <v>1861.365788418164</v>
+        <v>2025.762099102541</v>
       </c>
       <c r="AC2" t="n">
-        <v>1683.719650014825</v>
+        <v>1832.426207539158</v>
       </c>
       <c r="AD2" t="n">
-        <v>1360404.744625497</v>
+        <v>1480556.045592523</v>
       </c>
       <c r="AE2" t="n">
-        <v>1861365.788418164</v>
+        <v>2025762.099102542</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.203242756027354e-06</v>
+        <v>1.818453519752576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.89388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1683719.650014825</v>
+        <v>1832426.207539158</v>
       </c>
     </row>
     <row r="3">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>910.3963520548635</v>
+        <v>998.5472213380335</v>
       </c>
       <c r="AB3" t="n">
-        <v>1245.644452733895</v>
+        <v>1366.256361029013</v>
       </c>
       <c r="AC3" t="n">
-        <v>1126.761894437941</v>
+        <v>1235.86277148525</v>
       </c>
       <c r="AD3" t="n">
-        <v>910396.3520548636</v>
+        <v>998547.2213380336</v>
       </c>
       <c r="AE3" t="n">
-        <v>1245644.452733895</v>
+        <v>1366256.361029013</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.524004385333361e-06</v>
+        <v>2.303218635429548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.021484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1126761.894437941</v>
+        <v>1235862.77148525</v>
       </c>
     </row>
     <row r="4">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>778.4898389265148</v>
+        <v>866.4700265005415</v>
       </c>
       <c r="AB4" t="n">
-        <v>1065.164142167035</v>
+        <v>1185.542516217758</v>
       </c>
       <c r="AC4" t="n">
-        <v>963.5063714058754</v>
+        <v>1072.396002389306</v>
       </c>
       <c r="AD4" t="n">
-        <v>778489.8389265148</v>
+        <v>866470.0265005415</v>
       </c>
       <c r="AE4" t="n">
-        <v>1065164.142167035</v>
+        <v>1185542.516217758</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.639585801743529e-06</v>
+        <v>2.477896132913921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>963506.3714058754</v>
+        <v>1072396.002389306</v>
       </c>
     </row>
     <row r="5">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>712.0708496856884</v>
+        <v>800.1362886057354</v>
       </c>
       <c r="AB5" t="n">
-        <v>974.2867508887343</v>
+        <v>1094.781769592106</v>
       </c>
       <c r="AC5" t="n">
-        <v>881.302190803956</v>
+        <v>990.2973340380988</v>
       </c>
       <c r="AD5" t="n">
-        <v>712070.8496856884</v>
+        <v>800136.2886057354</v>
       </c>
       <c r="AE5" t="n">
-        <v>974286.7508887344</v>
+        <v>1094781.769592106</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.691138619054041e-06</v>
+        <v>2.555807594771358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.84700520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>881302.190803956</v>
+        <v>990297.3340380988</v>
       </c>
     </row>
     <row r="6">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>707.300891935659</v>
+        <v>787.5155470531048</v>
       </c>
       <c r="AB6" t="n">
-        <v>967.7602842594601</v>
+        <v>1077.513514211976</v>
       </c>
       <c r="AC6" t="n">
-        <v>875.3986009898263</v>
+        <v>974.6771367152994</v>
       </c>
       <c r="AD6" t="n">
-        <v>707300.891935659</v>
+        <v>787515.5470531048</v>
       </c>
       <c r="AE6" t="n">
-        <v>967760.2842594602</v>
+        <v>1077513.514211976</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.695469055708124e-06</v>
+        <v>2.562352157567383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.794921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>875398.6009898263</v>
+        <v>974677.1367152994</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>722.8217807583543</v>
+        <v>813.4421795494767</v>
       </c>
       <c r="AB2" t="n">
-        <v>988.9966490799605</v>
+        <v>1112.987476595812</v>
       </c>
       <c r="AC2" t="n">
-        <v>894.6081969572832</v>
+        <v>1006.765513917241</v>
       </c>
       <c r="AD2" t="n">
-        <v>722821.7807583543</v>
+        <v>813442.1795494767</v>
       </c>
       <c r="AE2" t="n">
-        <v>988996.6490799605</v>
+        <v>1112987.476595812</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.601218430684143e-06</v>
+        <v>2.530706499611403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.75716145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>894608.1969572832</v>
+        <v>1006765.513917241</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>598.9222868716197</v>
+        <v>681.9838740256006</v>
       </c>
       <c r="AB3" t="n">
-        <v>819.4718954842349</v>
+        <v>933.1204234469153</v>
       </c>
       <c r="AC3" t="n">
-        <v>741.2626479152477</v>
+        <v>844.0647198758808</v>
       </c>
       <c r="AD3" t="n">
-        <v>598922.2868716196</v>
+        <v>681983.8740256006</v>
       </c>
       <c r="AE3" t="n">
-        <v>819471.8954842349</v>
+        <v>933120.4234469153</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.752329572342555e-06</v>
+        <v>2.769535844209473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.79427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>741262.6479152477</v>
+        <v>844064.7198758807</v>
       </c>
     </row>
     <row r="4">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>604.2290259036657</v>
+        <v>687.2906130576466</v>
       </c>
       <c r="AB4" t="n">
-        <v>826.7328099446834</v>
+        <v>940.3813379073637</v>
       </c>
       <c r="AC4" t="n">
-        <v>747.8305908903484</v>
+        <v>850.6326628509813</v>
       </c>
       <c r="AD4" t="n">
-        <v>604229.0259036657</v>
+        <v>687290.6130576467</v>
       </c>
       <c r="AE4" t="n">
-        <v>826732.8099446833</v>
+        <v>940381.3379073637</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.752105703984543e-06</v>
+        <v>2.769182022958217e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.79752604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>747830.5908903484</v>
+        <v>850632.6628509813</v>
       </c>
     </row>
   </sheetData>
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2634.264359346978</v>
+        <v>2795.188488888773</v>
       </c>
       <c r="AB2" t="n">
-        <v>3604.316712000195</v>
+        <v>3824.500205510831</v>
       </c>
       <c r="AC2" t="n">
-        <v>3260.325783697037</v>
+        <v>3459.495273616483</v>
       </c>
       <c r="AD2" t="n">
-        <v>2634264.359346978</v>
+        <v>2795188.488888773</v>
       </c>
       <c r="AE2" t="n">
-        <v>3604316.712000195</v>
+        <v>3824500.205510831</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43564775839795e-07</v>
+        <v>1.229821520502994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.93684895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3260325.783697037</v>
+        <v>3459495.273616483</v>
       </c>
     </row>
     <row r="3">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1411.161827552188</v>
+        <v>1521.15560983332</v>
       </c>
       <c r="AB3" t="n">
-        <v>1930.813868522923</v>
+        <v>2081.312214023164</v>
       </c>
       <c r="AC3" t="n">
-        <v>1746.539702825379</v>
+        <v>1882.674697456832</v>
       </c>
       <c r="AD3" t="n">
-        <v>1411161.827552188</v>
+        <v>1521155.60983332</v>
       </c>
       <c r="AE3" t="n">
-        <v>1930813.868522923</v>
+        <v>2081312.214023164</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240316846174068e-06</v>
+        <v>1.808240923939385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.12044270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1746539.702825379</v>
+        <v>1882674.697456832</v>
       </c>
     </row>
     <row r="4">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1167.957627471443</v>
+        <v>1261.088385302266</v>
       </c>
       <c r="AB4" t="n">
-        <v>1598.051152560384</v>
+        <v>1725.476764063578</v>
       </c>
       <c r="AC4" t="n">
-        <v>1445.5353934389</v>
+        <v>1560.799683423198</v>
       </c>
       <c r="AD4" t="n">
-        <v>1167957.627471443</v>
+        <v>1261088.385302266</v>
       </c>
       <c r="AE4" t="n">
-        <v>1598051.152560384</v>
+        <v>1725476.764063578</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.389062978212539e-06</v>
+        <v>2.025095870366442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.431640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1445535.3934389</v>
+        <v>1560799.683423198</v>
       </c>
     </row>
     <row r="5">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1061.623913108586</v>
+        <v>1154.669330084837</v>
       </c>
       <c r="AB5" t="n">
-        <v>1452.560673456727</v>
+        <v>1579.869517837723</v>
       </c>
       <c r="AC5" t="n">
-        <v>1313.930321463725</v>
+        <v>1429.088988416085</v>
       </c>
       <c r="AD5" t="n">
-        <v>1061623.913108586</v>
+        <v>1154669.330084837</v>
       </c>
       <c r="AE5" t="n">
-        <v>1452560.673456727</v>
+        <v>1579869.517837723</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.466020436487269e-06</v>
+        <v>2.137291093614417e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.25325520833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1313930.321463726</v>
+        <v>1429088.988416085</v>
       </c>
     </row>
     <row r="6">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>991.6484315873691</v>
+        <v>1084.779099909641</v>
       </c>
       <c r="AB6" t="n">
-        <v>1356.817132539031</v>
+        <v>1484.242621572677</v>
       </c>
       <c r="AC6" t="n">
-        <v>1227.324409714311</v>
+        <v>1342.588588917383</v>
       </c>
       <c r="AD6" t="n">
-        <v>991648.4315873692</v>
+        <v>1084779.099909641</v>
       </c>
       <c r="AE6" t="n">
-        <v>1356817.132539031</v>
+        <v>1484242.621572677</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.514836734646612e-06</v>
+        <v>2.208459705376192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.56966145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1227324.409714311</v>
+        <v>1342588.588917383</v>
       </c>
     </row>
     <row r="7">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>946.1946751667284</v>
+        <v>1030.851250345111</v>
       </c>
       <c r="AB7" t="n">
-        <v>1294.625297726102</v>
+        <v>1410.456158669674</v>
       </c>
       <c r="AC7" t="n">
-        <v>1171.06807632914</v>
+        <v>1275.844202473892</v>
       </c>
       <c r="AD7" t="n">
-        <v>946194.6751667284</v>
+        <v>1030851.250345111</v>
       </c>
       <c r="AE7" t="n">
-        <v>1294625.297726102</v>
+        <v>1410456.158669674</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.548625270431413e-06</v>
+        <v>2.257719548419146e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.12044270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1171068.07632914</v>
+        <v>1275844.202473891</v>
       </c>
     </row>
     <row r="8">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>899.5906225968533</v>
+        <v>992.6359500645535</v>
       </c>
       <c r="AB8" t="n">
-        <v>1230.859576974307</v>
+        <v>1358.168298885755</v>
       </c>
       <c r="AC8" t="n">
-        <v>1113.388066470144</v>
+        <v>1228.546622641277</v>
       </c>
       <c r="AD8" t="n">
-        <v>899590.6225968533</v>
+        <v>992635.9500645535</v>
       </c>
       <c r="AE8" t="n">
-        <v>1230859.576974307</v>
+        <v>1358168.298885755</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.572650546584345e-06</v>
+        <v>2.292745669109746e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1113388.066470144</v>
+        <v>1228546.622641277</v>
       </c>
     </row>
     <row r="9">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>867.6798926978668</v>
+        <v>952.4217192222703</v>
       </c>
       <c r="AB9" t="n">
-        <v>1187.197908524468</v>
+        <v>1303.14541412069</v>
       </c>
       <c r="AC9" t="n">
-        <v>1073.893406377622</v>
+        <v>1178.775044773086</v>
       </c>
       <c r="AD9" t="n">
-        <v>867679.8926978668</v>
+        <v>952421.7192222703</v>
       </c>
       <c r="AE9" t="n">
-        <v>1187197.908524468</v>
+        <v>1303145.41412069</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.590262701214383e-06</v>
+        <v>2.318422187863014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.59309895833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1073893.406377622</v>
+        <v>1178775.044773086</v>
       </c>
     </row>
     <row r="10">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>845.4573516754805</v>
+        <v>930.0285859992917</v>
       </c>
       <c r="AB10" t="n">
-        <v>1156.792047508322</v>
+        <v>1272.506141329696</v>
       </c>
       <c r="AC10" t="n">
-        <v>1046.389438061962</v>
+        <v>1151.059941174776</v>
       </c>
       <c r="AD10" t="n">
-        <v>845457.3516754805</v>
+        <v>930028.5859992917</v>
       </c>
       <c r="AE10" t="n">
-        <v>1156792.047508322</v>
+        <v>1272506.141329696</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.601174579626471e-06</v>
+        <v>2.334330465786234e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.45963541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1046389.438061962</v>
+        <v>1151059.941174776</v>
       </c>
     </row>
     <row r="11">
@@ -9490,28 +9490,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>848.5730671331978</v>
+        <v>933.1443014570089</v>
       </c>
       <c r="AB11" t="n">
-        <v>1161.055106853235</v>
+        <v>1276.769200674609</v>
       </c>
       <c r="AC11" t="n">
-        <v>1050.245637006239</v>
+        <v>1154.916140119052</v>
       </c>
       <c r="AD11" t="n">
-        <v>848573.0671331978</v>
+        <v>933144.3014570088</v>
       </c>
       <c r="AE11" t="n">
-        <v>1161055.106853235</v>
+        <v>1276769.20067461</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.600600270236361e-06</v>
+        <v>2.333493188000802e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.46614583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1050245.637006239</v>
+        <v>1154916.140119052</v>
       </c>
     </row>
     <row r="12">
@@ -9596,28 +9596,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>852.1956277909794</v>
+        <v>936.7668621147906</v>
       </c>
       <c r="AB12" t="n">
-        <v>1166.011654161309</v>
+        <v>1281.725747982684</v>
       </c>
       <c r="AC12" t="n">
-        <v>1054.729138395788</v>
+        <v>1159.399641508601</v>
       </c>
       <c r="AD12" t="n">
-        <v>852195.6277909795</v>
+        <v>936766.8621147906</v>
       </c>
       <c r="AE12" t="n">
-        <v>1166011.654161309</v>
+        <v>1281725.747982684</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.600025960846252e-06</v>
+        <v>2.332655910215369e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.47265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1054729.138395788</v>
+        <v>1159399.641508601</v>
       </c>
     </row>
   </sheetData>
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.752463297344</v>
+        <v>694.8061253607261</v>
       </c>
       <c r="AB2" t="n">
-        <v>828.8172441960285</v>
+        <v>950.6643934014395</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.7160896622669</v>
+        <v>859.9343179610617</v>
       </c>
       <c r="AD2" t="n">
-        <v>605752.4632973439</v>
+        <v>694806.1253607261</v>
       </c>
       <c r="AE2" t="n">
-        <v>828817.2441960284</v>
+        <v>950664.3934014395</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.706243139000837e-06</v>
+        <v>2.733802301230748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>749716.0896622669</v>
+        <v>859934.3179610616</v>
       </c>
     </row>
     <row r="3">
@@ -9999,28 +9999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.9528915223482</v>
+        <v>662.5712811132379</v>
       </c>
       <c r="AB3" t="n">
-        <v>794.8853760135887</v>
+        <v>906.5592574010645</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.0226313554832</v>
+        <v>820.0385142386151</v>
       </c>
       <c r="AD3" t="n">
-        <v>580952.8915223482</v>
+        <v>662571.2811132378</v>
       </c>
       <c r="AE3" t="n">
-        <v>794885.3760135887</v>
+        <v>906559.2574010645</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.750574531736206e-06</v>
+        <v>2.804831605734024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>719022.6313554832</v>
+        <v>820038.5142386151</v>
       </c>
     </row>
   </sheetData>
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1831.817477314149</v>
+        <v>1963.378290265123</v>
       </c>
       <c r="AB2" t="n">
-        <v>2506.373486544745</v>
+        <v>2686.380794877707</v>
       </c>
       <c r="AC2" t="n">
-        <v>2267.168718706196</v>
+        <v>2429.996382173703</v>
       </c>
       <c r="AD2" t="n">
-        <v>1831817.477314149</v>
+        <v>1963378.290265123</v>
       </c>
       <c r="AE2" t="n">
-        <v>2506373.486544746</v>
+        <v>2686380.794877707</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.031655007647984e-06</v>
+        <v>1.531845919890663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.39973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2267168.718706196</v>
+        <v>2429996.382173703</v>
       </c>
     </row>
     <row r="3">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1116.46283332333</v>
+        <v>1215.090794986413</v>
       </c>
       <c r="AB3" t="n">
-        <v>1527.593703416953</v>
+        <v>1662.540831722962</v>
       </c>
       <c r="AC3" t="n">
-        <v>1381.802304354067</v>
+        <v>1503.870268134034</v>
       </c>
       <c r="AD3" t="n">
-        <v>1116462.83332333</v>
+        <v>1215090.794986413</v>
       </c>
       <c r="AE3" t="n">
-        <v>1527593.703416953</v>
+        <v>1662540.831722962</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.390201645301663e-06</v>
+        <v>2.064231455664374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.30078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1381802.304354067</v>
+        <v>1503870.268134034</v>
       </c>
     </row>
     <row r="4">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>951.0983866076411</v>
+        <v>1041.493135448751</v>
       </c>
       <c r="AB4" t="n">
-        <v>1301.334772056039</v>
+        <v>1425.01685535531</v>
       </c>
       <c r="AC4" t="n">
-        <v>1177.137207845834</v>
+        <v>1289.015246703917</v>
       </c>
       <c r="AD4" t="n">
-        <v>951098.3866076411</v>
+        <v>1041493.135448751</v>
       </c>
       <c r="AE4" t="n">
-        <v>1301334.772056039</v>
+        <v>1425016.85535531</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.519469500509026e-06</v>
+        <v>2.256173951076544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.318359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177137.207845834</v>
+        <v>1289015.246703917</v>
       </c>
     </row>
     <row r="5">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>863.0851022987811</v>
+        <v>945.3319791724896</v>
       </c>
       <c r="AB5" t="n">
-        <v>1180.911113592593</v>
+        <v>1293.444919007324</v>
       </c>
       <c r="AC5" t="n">
-        <v>1068.206614330473</v>
+        <v>1170.000351298609</v>
       </c>
       <c r="AD5" t="n">
-        <v>863085.102298781</v>
+        <v>945331.9791724896</v>
       </c>
       <c r="AE5" t="n">
-        <v>1180911.113592593</v>
+        <v>1293444.919007323</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589626419616948e-06</v>
+        <v>2.360345975145505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.37760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1068206.614330473</v>
+        <v>1170000.351298609</v>
       </c>
     </row>
     <row r="6">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>800.777835385798</v>
+        <v>891.1724947183566</v>
       </c>
       <c r="AB6" t="n">
-        <v>1095.659562199634</v>
+        <v>1219.341523029356</v>
       </c>
       <c r="AC6" t="n">
-        <v>991.0913513511538</v>
+        <v>1102.96927942801</v>
       </c>
       <c r="AD6" t="n">
-        <v>800777.835385798</v>
+        <v>891172.4947183565</v>
       </c>
       <c r="AE6" t="n">
-        <v>1095659.562199634</v>
+        <v>1219341.523029356</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.631123490919081e-06</v>
+        <v>2.421962619169273e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.86002604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>991091.3513511538</v>
+        <v>1102969.27942801</v>
       </c>
     </row>
     <row r="7">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>772.9863888892911</v>
+        <v>855.3185171090203</v>
       </c>
       <c r="AB7" t="n">
-        <v>1057.634079031026</v>
+        <v>1170.284529098406</v>
       </c>
       <c r="AC7" t="n">
-        <v>956.6949669270568</v>
+        <v>1058.594216145905</v>
       </c>
       <c r="AD7" t="n">
-        <v>772986.3888892911</v>
+        <v>855318.5171090203</v>
       </c>
       <c r="AE7" t="n">
-        <v>1057634.079031026</v>
+        <v>1170284.529098406</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.651822269889928e-06</v>
+        <v>2.452697060313023e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>956694.9669270568</v>
+        <v>1058594.216145905</v>
       </c>
     </row>
     <row r="8">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>770.1729087553917</v>
+        <v>852.5050369751208</v>
       </c>
       <c r="AB8" t="n">
-        <v>1053.784551389841</v>
+        <v>1166.435001457221</v>
       </c>
       <c r="AC8" t="n">
-        <v>953.2128328011008</v>
+        <v>1055.11208201995</v>
       </c>
       <c r="AD8" t="n">
-        <v>770172.9087553917</v>
+        <v>852505.0369751208</v>
       </c>
       <c r="AE8" t="n">
-        <v>1053784.551389841</v>
+        <v>1166435.001457221</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.653513997017354e-06</v>
+        <v>2.45520900982958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.58984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>953212.8328011008</v>
+        <v>1055112.08201995</v>
       </c>
     </row>
   </sheetData>
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2206.593659515725</v>
+        <v>2348.603012237698</v>
       </c>
       <c r="AB2" t="n">
-        <v>3019.158792991365</v>
+        <v>3213.46225439606</v>
       </c>
       <c r="AC2" t="n">
-        <v>2731.014515204135</v>
+        <v>2906.773926958979</v>
       </c>
       <c r="AD2" t="n">
-        <v>2206593.659515725</v>
+        <v>2348603.012237698</v>
       </c>
       <c r="AE2" t="n">
-        <v>3019158.792991365</v>
+        <v>3213462.25439606</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.328137578113596e-07</v>
+        <v>1.371648974613951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2731014.515204134</v>
+        <v>2906773.926958979</v>
       </c>
     </row>
     <row r="3">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1260.201926793052</v>
+        <v>1360.418748906792</v>
       </c>
       <c r="AB3" t="n">
-        <v>1724.263872423482</v>
+        <v>1861.384949693656</v>
       </c>
       <c r="AC3" t="n">
-        <v>1559.702548458929</v>
+        <v>1683.736982565078</v>
       </c>
       <c r="AD3" t="n">
-        <v>1260201.926793052</v>
+        <v>1360418.748906792</v>
       </c>
       <c r="AE3" t="n">
-        <v>1724263.872423482</v>
+        <v>1861384.949693656</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312003964159052e-06</v>
+        <v>1.929226361702239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1559702.548458929</v>
+        <v>1683736.982565078</v>
       </c>
     </row>
     <row r="4">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1054.459813530859</v>
+        <v>1154.591205281476</v>
       </c>
       <c r="AB4" t="n">
-        <v>1442.758436356714</v>
+        <v>1579.762624035142</v>
       </c>
       <c r="AC4" t="n">
-        <v>1305.063596115012</v>
+        <v>1428.992296407996</v>
       </c>
       <c r="AD4" t="n">
-        <v>1054459.813530859</v>
+        <v>1154591.205281476</v>
       </c>
       <c r="AE4" t="n">
-        <v>1442758.436356714</v>
+        <v>1579762.624035142</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452018655934647e-06</v>
+        <v>2.135109912193055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.85872395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1305063.596115012</v>
+        <v>1428992.296407996</v>
       </c>
     </row>
     <row r="5">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>959.7184903869276</v>
+        <v>1051.576716870469</v>
       </c>
       <c r="AB5" t="n">
-        <v>1313.129178338998</v>
+        <v>1438.813656312722</v>
       </c>
       <c r="AC5" t="n">
-        <v>1187.8059725467</v>
+        <v>1301.495300341884</v>
       </c>
       <c r="AD5" t="n">
-        <v>959718.4903869275</v>
+        <v>1051576.71687047</v>
       </c>
       <c r="AE5" t="n">
-        <v>1313129.178338998</v>
+        <v>1438813.656312722</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.5252436096418e-06</v>
+        <v>2.242782994657263e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.810546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1187805.9725467</v>
+        <v>1301495.300341884</v>
       </c>
     </row>
     <row r="6">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>904.5864371351847</v>
+        <v>988.0862470056311</v>
       </c>
       <c r="AB6" t="n">
-        <v>1237.695070825434</v>
+        <v>1351.943194441804</v>
       </c>
       <c r="AC6" t="n">
-        <v>1119.571190381796</v>
+        <v>1222.915633428468</v>
       </c>
       <c r="AD6" t="n">
-        <v>904586.4371351848</v>
+        <v>988086.2470056311</v>
       </c>
       <c r="AE6" t="n">
-        <v>1237695.070825434</v>
+        <v>1351943.194441804</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.569802602776512e-06</v>
+        <v>2.308304430990342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.21809895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1119571.190381796</v>
+        <v>1222915.633428468</v>
       </c>
     </row>
     <row r="7">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>849.3773377069975</v>
+        <v>941.150223335968</v>
       </c>
       <c r="AB7" t="n">
-        <v>1162.155545334222</v>
+        <v>1287.723256185747</v>
       </c>
       <c r="AC7" t="n">
-        <v>1051.241051183075</v>
+        <v>1164.82475594632</v>
       </c>
       <c r="AD7" t="n">
-        <v>849377.3377069975</v>
+        <v>941150.223335968</v>
       </c>
       <c r="AE7" t="n">
-        <v>1162155.545334222</v>
+        <v>1287723.256185747</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.602368694039081e-06</v>
+        <v>2.35619099496244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.80794270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1051241.051183075</v>
+        <v>1164824.75594632</v>
       </c>
     </row>
     <row r="8">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>817.7110403533509</v>
+        <v>901.2961015698178</v>
       </c>
       <c r="AB8" t="n">
-        <v>1118.828320276519</v>
+        <v>1233.193088545539</v>
       </c>
       <c r="AC8" t="n">
-        <v>1012.048915674737</v>
+        <v>1115.498870972122</v>
       </c>
       <c r="AD8" t="n">
-        <v>817711.0403533509</v>
+        <v>901296.1015698178</v>
       </c>
       <c r="AE8" t="n">
-        <v>1118828.320276519</v>
+        <v>1233193.088545539</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.620894314817189e-06</v>
+        <v>2.383431854707047e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.580078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1012048.915674737</v>
+        <v>1115498.870972122</v>
       </c>
     </row>
     <row r="9">
@@ -11971,28 +11971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>808.3641224989783</v>
+        <v>891.9491837154452</v>
       </c>
       <c r="AB9" t="n">
-        <v>1106.039454911254</v>
+        <v>1220.404223180273</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000.480601670648</v>
+        <v>1103.930556968032</v>
       </c>
       <c r="AD9" t="n">
-        <v>808364.1224989783</v>
+        <v>891949.1837154452</v>
       </c>
       <c r="AE9" t="n">
-        <v>1106039.454911254</v>
+        <v>1220404.223180273</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625574471645342e-06</v>
+        <v>2.390313756116211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.52473958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000480.601670648</v>
+        <v>1103930.556968032</v>
       </c>
     </row>
     <row r="10">
@@ -12077,28 +12077,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>811.5431724939707</v>
+        <v>895.1282337104377</v>
       </c>
       <c r="AB10" t="n">
-        <v>1110.38917136419</v>
+        <v>1224.753939633209</v>
       </c>
       <c r="AC10" t="n">
-        <v>1004.415187290181</v>
+        <v>1107.865142587565</v>
       </c>
       <c r="AD10" t="n">
-        <v>811543.1724939707</v>
+        <v>895128.2337104377</v>
       </c>
       <c r="AE10" t="n">
-        <v>1110389.17136419</v>
+        <v>1224753.939633209</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.625769478179849e-06</v>
+        <v>2.390600502008259e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.521484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1004415.187290181</v>
+        <v>1107865.142587565</v>
       </c>
     </row>
   </sheetData>
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3162.489185885373</v>
+        <v>3334.043838705937</v>
       </c>
       <c r="AB2" t="n">
-        <v>4327.057223304727</v>
+        <v>4561.785867750962</v>
       </c>
       <c r="AC2" t="n">
-        <v>3914.088954975316</v>
+        <v>4126.415427039316</v>
       </c>
       <c r="AD2" t="n">
-        <v>3162489.185885374</v>
+        <v>3334043.838705937</v>
       </c>
       <c r="AE2" t="n">
-        <v>4327057.223304727</v>
+        <v>4561785.867750962</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.614634690588324e-07</v>
+        <v>1.101664411864411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3914088.954975315</v>
+        <v>4126415.427039316</v>
       </c>
     </row>
     <row r="3">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1574.197488718191</v>
+        <v>1685.678175080449</v>
       </c>
       <c r="AB3" t="n">
-        <v>2153.886452755988</v>
+        <v>2306.419246017605</v>
       </c>
       <c r="AC3" t="n">
-        <v>1948.322552703579</v>
+        <v>2086.297830257427</v>
       </c>
       <c r="AD3" t="n">
-        <v>1574197.488718191</v>
+        <v>1685678.175080449</v>
       </c>
       <c r="AE3" t="n">
-        <v>2153886.452755988</v>
+        <v>2306419.246017605</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.171699442563646e-06</v>
+        <v>1.695182539576309e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1948322.552703578</v>
+        <v>2086297.830257426</v>
       </c>
     </row>
     <row r="4">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1285.799515768796</v>
+        <v>1380.201552568968</v>
       </c>
       <c r="AB4" t="n">
-        <v>1759.28762294602</v>
+        <v>1888.452654419948</v>
       </c>
       <c r="AC4" t="n">
-        <v>1591.383681387738</v>
+        <v>1708.221383542054</v>
       </c>
       <c r="AD4" t="n">
-        <v>1285799.515768796</v>
+        <v>1380201.552568968</v>
       </c>
       <c r="AE4" t="n">
-        <v>1759287.62294602</v>
+        <v>1888452.654419947</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329431833385869e-06</v>
+        <v>1.923385426028509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.04361979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1591383.681387738</v>
+        <v>1708221.383542054</v>
       </c>
     </row>
     <row r="5">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1156.023645217563</v>
+        <v>1250.425592509184</v>
       </c>
       <c r="AB5" t="n">
-        <v>1581.722551550486</v>
+        <v>1710.887460554865</v>
       </c>
       <c r="AC5" t="n">
-        <v>1430.765171192051</v>
+        <v>1547.602762565141</v>
       </c>
       <c r="AD5" t="n">
-        <v>1156023.645217563</v>
+        <v>1250425.592509184</v>
       </c>
       <c r="AE5" t="n">
-        <v>1581722.551550486</v>
+        <v>1710887.460554865</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411309625757787e-06</v>
+        <v>2.041843964938661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.70572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1430765.171192051</v>
+        <v>1547602.762565141</v>
       </c>
     </row>
     <row r="6">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1080.669043147825</v>
+        <v>1174.985649584874</v>
       </c>
       <c r="AB6" t="n">
-        <v>1478.619060588252</v>
+        <v>1607.667202470433</v>
       </c>
       <c r="AC6" t="n">
-        <v>1337.501732700594</v>
+        <v>1454.233701041745</v>
       </c>
       <c r="AD6" t="n">
-        <v>1080669.043147825</v>
+        <v>1174985.649584874</v>
       </c>
       <c r="AE6" t="n">
-        <v>1478619.060588252</v>
+        <v>1607667.202470433</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.462318549281441e-06</v>
+        <v>2.115642273087284e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.95052083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1337501.732700594</v>
+        <v>1454233.701041745</v>
       </c>
     </row>
     <row r="7">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1030.371434928051</v>
+        <v>1116.106135665322</v>
       </c>
       <c r="AB7" t="n">
-        <v>1409.79965404809</v>
+        <v>1527.105653944877</v>
       </c>
       <c r="AC7" t="n">
-        <v>1275.250353731981</v>
+        <v>1381.360833638623</v>
       </c>
       <c r="AD7" t="n">
-        <v>1030371.434928051</v>
+        <v>1116106.135665322</v>
       </c>
       <c r="AE7" t="n">
-        <v>1409799.65404809</v>
+        <v>1527105.653944877</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.498928274836241e-06</v>
+        <v>2.168608217496536e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.439453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1275250.353731981</v>
+        <v>1381360.833638623</v>
       </c>
     </row>
     <row r="8">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>989.8877559930801</v>
+        <v>1075.622456730351</v>
       </c>
       <c r="AB8" t="n">
-        <v>1354.408098515399</v>
+        <v>1471.714098412185</v>
       </c>
       <c r="AC8" t="n">
-        <v>1225.145290516794</v>
+        <v>1331.255770423436</v>
       </c>
       <c r="AD8" t="n">
-        <v>989887.7559930801</v>
+        <v>1075622.456730351</v>
       </c>
       <c r="AE8" t="n">
-        <v>1354408.098515399</v>
+        <v>1471714.098412185</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525656197863395e-06</v>
+        <v>2.207277441692493e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.08138020833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1225145.290516794</v>
+        <v>1331255.770423436</v>
       </c>
     </row>
     <row r="9">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>948.4141755631756</v>
+        <v>1042.645441145653</v>
       </c>
       <c r="AB9" t="n">
-        <v>1297.662116085968</v>
+        <v>1426.593490845952</v>
       </c>
       <c r="AC9" t="n">
-        <v>1173.815065006941</v>
+        <v>1290.441410316153</v>
       </c>
       <c r="AD9" t="n">
-        <v>948414.1755631756</v>
+        <v>1042645.441145653</v>
       </c>
       <c r="AE9" t="n">
-        <v>1297662.116085968</v>
+        <v>1426593.490845952</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.54513746570361e-06</v>
+        <v>2.235462404398702e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.82747395833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1173815.065006941</v>
+        <v>1290441.410316153</v>
       </c>
     </row>
     <row r="10">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>919.9269225473814</v>
+        <v>1005.746874630673</v>
       </c>
       <c r="AB10" t="n">
-        <v>1258.684599740854</v>
+        <v>1376.107244290289</v>
       </c>
       <c r="AC10" t="n">
-        <v>1138.557508116517</v>
+        <v>1244.773500273871</v>
       </c>
       <c r="AD10" t="n">
-        <v>919926.9225473814</v>
+        <v>1005746.874630673</v>
       </c>
       <c r="AE10" t="n">
-        <v>1258684.599740854</v>
+        <v>1376107.244290289</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.560289562912666e-06</v>
+        <v>2.257384042059086e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1138557.508116517</v>
+        <v>1244773.500273871</v>
       </c>
     </row>
     <row r="11">
@@ -13328,28 +13328,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>896.6574142189719</v>
+        <v>982.3067741016715</v>
       </c>
       <c r="AB11" t="n">
-        <v>1226.846231867669</v>
+        <v>1344.035464642257</v>
       </c>
       <c r="AC11" t="n">
-        <v>1109.757749387719</v>
+        <v>1215.762606262422</v>
       </c>
       <c r="AD11" t="n">
-        <v>896657.4142189719</v>
+        <v>982306.7741016715</v>
       </c>
       <c r="AE11" t="n">
-        <v>1226846.231867669</v>
+        <v>1344035.464642257</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.57195950113579e-06</v>
+        <v>2.274267787834786e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.48893229166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1109757.749387719</v>
+        <v>1215762.606262422</v>
       </c>
     </row>
     <row r="12">
@@ -13434,28 +13434,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>884.4517671023193</v>
+        <v>970.1011269850188</v>
       </c>
       <c r="AB12" t="n">
-        <v>1210.145927007517</v>
+        <v>1327.335159782106</v>
       </c>
       <c r="AC12" t="n">
-        <v>1094.651298184395</v>
+        <v>1200.656155059098</v>
       </c>
       <c r="AD12" t="n">
-        <v>884451.7671023193</v>
+        <v>970101.1269850188</v>
       </c>
       <c r="AE12" t="n">
-        <v>1210145.927007517</v>
+        <v>1327335.159782106</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.577229795817201e-06</v>
+        <v>2.281892705281876e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.423828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1094651.298184395</v>
+        <v>1200656.155059098</v>
       </c>
     </row>
     <row r="13">
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>887.2655801388381</v>
+        <v>972.9149400215377</v>
       </c>
       <c r="AB13" t="n">
-        <v>1213.995910140753</v>
+        <v>1331.185142915341</v>
       </c>
       <c r="AC13" t="n">
-        <v>1098.13384433088</v>
+        <v>1204.138701205583</v>
       </c>
       <c r="AD13" t="n">
-        <v>887265.5801388382</v>
+        <v>972914.9400215377</v>
       </c>
       <c r="AE13" t="n">
-        <v>1213995.910140753</v>
+        <v>1331185.142915341</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.577135683412175e-06</v>
+        <v>2.281756546041749e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.423828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1098133.84433088</v>
+        <v>1204138.701205583</v>
       </c>
     </row>
   </sheetData>
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1512.293422274847</v>
+        <v>1625.634841048183</v>
       </c>
       <c r="AB2" t="n">
-        <v>2069.18657803354</v>
+        <v>2224.265307469713</v>
       </c>
       <c r="AC2" t="n">
-        <v>1871.70631514762</v>
+        <v>2011.984548300769</v>
       </c>
       <c r="AD2" t="n">
-        <v>1512293.422274847</v>
+        <v>1625634.841048183</v>
       </c>
       <c r="AE2" t="n">
-        <v>2069186.57803354</v>
+        <v>2224265.307469713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.142875913377228e-06</v>
+        <v>1.716239174869566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.00065104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1871706.31514762</v>
+        <v>2011984.548300769</v>
       </c>
     </row>
     <row r="3">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>976.6677586150927</v>
+        <v>1073.561536358316</v>
       </c>
       <c r="AB3" t="n">
-        <v>1336.319914877715</v>
+        <v>1468.894256237777</v>
       </c>
       <c r="AC3" t="n">
-        <v>1208.783417738565</v>
+        <v>1328.70505002848</v>
       </c>
       <c r="AD3" t="n">
-        <v>976667.7586150927</v>
+        <v>1073561.536358316</v>
       </c>
       <c r="AE3" t="n">
-        <v>1336319.914877715</v>
+        <v>1468894.256237777</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.476218963746675e-06</v>
+        <v>2.216815304804795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.451171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1208783.417738565</v>
+        <v>1328705.05002848</v>
       </c>
     </row>
     <row r="4">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>833.9743196545165</v>
+        <v>922.9428803651332</v>
       </c>
       <c r="AB4" t="n">
-        <v>1141.080456501619</v>
+        <v>1262.81116628177</v>
       </c>
       <c r="AC4" t="n">
-        <v>1032.177339249584</v>
+        <v>1142.290240938441</v>
       </c>
       <c r="AD4" t="n">
-        <v>833974.3196545165</v>
+        <v>922942.8803651332</v>
       </c>
       <c r="AE4" t="n">
-        <v>1141080.456501619</v>
+        <v>1262811.16628177</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.598091789431534e-06</v>
+        <v>2.399829852004695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.73893229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1032177.339249584</v>
+        <v>1142290.240938441</v>
       </c>
     </row>
     <row r="5">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>756.7317345165927</v>
+        <v>845.6149543726376</v>
       </c>
       <c r="AB5" t="n">
-        <v>1035.393743813559</v>
+        <v>1157.007686471512</v>
       </c>
       <c r="AC5" t="n">
-        <v>936.5772180882389</v>
+        <v>1046.584496745157</v>
       </c>
       <c r="AD5" t="n">
-        <v>756731.7345165927</v>
+        <v>845614.9543726376</v>
       </c>
       <c r="AE5" t="n">
-        <v>1035393.743813559</v>
+        <v>1157007.686471512</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.65938455556544e-06</v>
+        <v>2.491872255859615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>936577.2180882388</v>
+        <v>1046584.496745157</v>
       </c>
     </row>
     <row r="6">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>726.127120462648</v>
+        <v>807.0852127946373</v>
       </c>
       <c r="AB6" t="n">
-        <v>993.5191606846713</v>
+        <v>1104.28959423226</v>
       </c>
       <c r="AC6" t="n">
-        <v>898.6990864018252</v>
+        <v>998.8977452389125</v>
       </c>
       <c r="AD6" t="n">
-        <v>726127.120462648</v>
+        <v>807085.2127946373</v>
       </c>
       <c r="AE6" t="n">
-        <v>993519.1606846713</v>
+        <v>1104289.59423226</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.682598427124461e-06</v>
+        <v>2.526732169611977e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.697265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>898699.0864018252</v>
+        <v>998897.7452389125</v>
       </c>
     </row>
     <row r="7">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>729.4821349882272</v>
+        <v>810.4402273202166</v>
       </c>
       <c r="AB7" t="n">
-        <v>998.1096395713636</v>
+        <v>1108.880073118953</v>
       </c>
       <c r="AC7" t="n">
-        <v>902.8514564263492</v>
+        <v>1003.050115263436</v>
       </c>
       <c r="AD7" t="n">
-        <v>729482.1349882273</v>
+        <v>810440.2273202166</v>
       </c>
       <c r="AE7" t="n">
-        <v>998109.6395713636</v>
+        <v>1108880.073118953</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.682700242350596e-06</v>
+        <v>2.52688506397054e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.697265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>902851.4564263491</v>
+        <v>1003050.115263436</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1093.959002200318</v>
+        <v>1203.803008380301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1496.802968875487</v>
+        <v>1647.09638410648</v>
       </c>
       <c r="AC2" t="n">
-        <v>1353.950194302171</v>
+        <v>1489.899816921651</v>
       </c>
       <c r="AD2" t="n">
-        <v>1093959.002200318</v>
+        <v>1203803.008380301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1496802.968875487</v>
+        <v>1647096.38410648</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338766538704959e-06</v>
+        <v>2.053328826250374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.78776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1353950.194302171</v>
+        <v>1489899.816921651</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>767.3390363164044</v>
+        <v>853.6085560286972</v>
       </c>
       <c r="AB3" t="n">
-        <v>1049.90712209719</v>
+        <v>1167.944884910149</v>
       </c>
       <c r="AC3" t="n">
-        <v>949.7054599181344</v>
+        <v>1056.477864315265</v>
       </c>
       <c r="AD3" t="n">
-        <v>767339.0363164045</v>
+        <v>853608.5560286972</v>
       </c>
       <c r="AE3" t="n">
-        <v>1049907.12209719</v>
+        <v>1167944.884910149</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.630107082301768e-06</v>
+        <v>2.500171437809414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.17838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>949705.4599181344</v>
+        <v>1056477.864315265</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.8696949315062</v>
+        <v>754.3663635062898</v>
       </c>
       <c r="AB4" t="n">
-        <v>924.7547338718307</v>
+        <v>1032.157338844459</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.4974399725231</v>
+        <v>933.6496910670666</v>
       </c>
       <c r="AD4" t="n">
-        <v>675869.6949315062</v>
+        <v>754366.3635062898</v>
       </c>
       <c r="AE4" t="n">
-        <v>924754.7338718307</v>
+        <v>1032157.338844459</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.719089505336979e-06</v>
+        <v>2.636647939847287e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.08463541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>836497.4399725231</v>
+        <v>933649.6910670665</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>673.9152530433804</v>
+        <v>752.4119216181641</v>
       </c>
       <c r="AB5" t="n">
-        <v>922.0805802566064</v>
+        <v>1029.483185229235</v>
       </c>
       <c r="AC5" t="n">
-        <v>834.0785038251377</v>
+        <v>931.2307549196811</v>
       </c>
       <c r="AD5" t="n">
-        <v>673915.2530433804</v>
+        <v>752411.9216181642</v>
       </c>
       <c r="AE5" t="n">
-        <v>922080.5802566063</v>
+        <v>1029483.185229235</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.724286333380751e-06</v>
+        <v>2.64461855796392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.02278645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>834078.5038251376</v>
+        <v>931230.7549196811</v>
       </c>
     </row>
   </sheetData>
@@ -27412,28 +27412,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>845.9613957655324</v>
+        <v>945.4780952275775</v>
       </c>
       <c r="AB2" t="n">
-        <v>1157.481702869186</v>
+        <v>1293.64484144008</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047.013273683124</v>
+        <v>1170.181193414977</v>
       </c>
       <c r="AD2" t="n">
-        <v>845961.3957655324</v>
+        <v>945478.0952275775</v>
       </c>
       <c r="AE2" t="n">
-        <v>1157481.702869186</v>
+        <v>1293644.84144008</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50184514992611e-06</v>
+        <v>2.346603422314965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.779296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1047013.273683124</v>
+        <v>1170181.193414977</v>
       </c>
     </row>
     <row r="3">
@@ -27518,28 +27518,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>630.0587201130413</v>
+        <v>714.3242402494752</v>
       </c>
       <c r="AB3" t="n">
-        <v>862.0741370876359</v>
+        <v>977.3699392706828</v>
       </c>
       <c r="AC3" t="n">
-        <v>779.7989913726418</v>
+        <v>884.0911240140134</v>
       </c>
       <c r="AD3" t="n">
-        <v>630058.7201130413</v>
+        <v>714324.2402494752</v>
       </c>
       <c r="AE3" t="n">
-        <v>862074.1370876359</v>
+        <v>977369.9392706829</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.739042112022702e-06</v>
+        <v>2.717218996794105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.537109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>779798.9913726418</v>
+        <v>884091.1240140134</v>
       </c>
     </row>
     <row r="4">
@@ -27624,28 +27624,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.538950898948</v>
+        <v>704.1363004538415</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.6264776845411</v>
+        <v>963.4303505821142</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.6803717441582</v>
+        <v>871.4819101055461</v>
       </c>
       <c r="AD4" t="n">
-        <v>627538.950898948</v>
+        <v>704136.3004538415</v>
       </c>
       <c r="AE4" t="n">
-        <v>858626.4776845411</v>
+        <v>963430.3505821142</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.746831651481009e-06</v>
+        <v>2.729389998546196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.44596354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>776680.3717441581</v>
+        <v>871481.9101055461</v>
       </c>
     </row>
   </sheetData>
@@ -27921,28 +27921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.355822313694</v>
+        <v>634.4798887184851</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.4940925424277</v>
+        <v>868.1233750217972</v>
       </c>
       <c r="AC2" t="n">
-        <v>686.1044809033227</v>
+        <v>785.2708985285254</v>
       </c>
       <c r="AD2" t="n">
-        <v>554355.8223136941</v>
+        <v>634479.8887184851</v>
       </c>
       <c r="AE2" t="n">
-        <v>758494.0925424277</v>
+        <v>868123.3750217971</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.72533533312386e-06</v>
+        <v>2.811737813978544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.216796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>686104.4809033227</v>
+        <v>785270.8985285255</v>
       </c>
     </row>
     <row r="3">
@@ -28027,28 +28027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>560.2424507470226</v>
+        <v>640.3665171518137</v>
       </c>
       <c r="AB3" t="n">
-        <v>766.5484372646257</v>
+        <v>876.1777197439952</v>
       </c>
       <c r="AC3" t="n">
-        <v>693.3901302695779</v>
+        <v>792.5565478947808</v>
       </c>
       <c r="AD3" t="n">
-        <v>560242.4507470226</v>
+        <v>640366.5171518137</v>
       </c>
       <c r="AE3" t="n">
-        <v>766548.4372646257</v>
+        <v>876177.7197439952</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.72521757886962e-06</v>
+        <v>2.811545912680839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.216796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>693390.1302695778</v>
+        <v>792556.5478947808</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2004.202191234268</v>
+        <v>2145.169176246456</v>
       </c>
       <c r="AB2" t="n">
-        <v>2742.237857207091</v>
+        <v>2935.115105125229</v>
       </c>
       <c r="AC2" t="n">
-        <v>2480.52252487025</v>
+        <v>2654.991838951999</v>
       </c>
       <c r="AD2" t="n">
-        <v>2004202.191234268</v>
+        <v>2145169.176246456</v>
       </c>
       <c r="AE2" t="n">
-        <v>2742237.857207091</v>
+        <v>2935115.105125229</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.821074342148878e-07</v>
+        <v>1.450946671529515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.63997395833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2480522.52487025</v>
+        <v>2654991.838951999</v>
       </c>
     </row>
     <row r="3">
@@ -28430,28 +28430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1182.392270036738</v>
+        <v>1281.958617707392</v>
       </c>
       <c r="AB3" t="n">
-        <v>1617.801267329706</v>
+        <v>1754.032336769943</v>
       </c>
       <c r="AC3" t="n">
-        <v>1463.400584974097</v>
+        <v>1586.629952348465</v>
       </c>
       <c r="AD3" t="n">
-        <v>1182392.270036737</v>
+        <v>1281958.617707392</v>
       </c>
       <c r="AE3" t="n">
-        <v>1617801.267329706</v>
+        <v>1754032.336769943</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.350803938145555e-06</v>
+        <v>1.995651809221935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.73046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1463400.584974098</v>
+        <v>1586629.952348465</v>
       </c>
     </row>
     <row r="4">
@@ -28536,28 +28536,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1002.310989679095</v>
+        <v>1093.580141710528</v>
       </c>
       <c r="AB4" t="n">
-        <v>1371.406114918994</v>
+        <v>1496.284595239211</v>
       </c>
       <c r="AC4" t="n">
-        <v>1240.521040091695</v>
+        <v>1353.481293518199</v>
       </c>
       <c r="AD4" t="n">
-        <v>1002310.989679095</v>
+        <v>1093580.141710528</v>
       </c>
       <c r="AE4" t="n">
-        <v>1371406.114918994</v>
+        <v>1496284.595239211</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485224538536944e-06</v>
+        <v>2.194242224005629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.58528645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1240521.040091695</v>
+        <v>1353481.293518199</v>
       </c>
     </row>
     <row r="5">
@@ -28642,28 +28642,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>913.7649424235896</v>
+        <v>1004.948753600451</v>
       </c>
       <c r="AB5" t="n">
-        <v>1250.253506688104</v>
+        <v>1375.015219886124</v>
       </c>
       <c r="AC5" t="n">
-        <v>1130.931066751609</v>
+        <v>1243.785697146174</v>
       </c>
       <c r="AD5" t="n">
-        <v>913764.9424235895</v>
+        <v>1004948.753600451</v>
       </c>
       <c r="AE5" t="n">
-        <v>1250253.506688104</v>
+        <v>1375015.219886124</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555241422696854e-06</v>
+        <v>2.29768382467318e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.61197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1130931.066751609</v>
+        <v>1243785.697146174</v>
       </c>
     </row>
     <row r="6">
@@ -28748,28 +28748,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>857.6080654808229</v>
+        <v>940.4947705270142</v>
       </c>
       <c r="AB6" t="n">
-        <v>1173.417190188451</v>
+        <v>1286.826436736</v>
       </c>
       <c r="AC6" t="n">
-        <v>1061.427900458235</v>
+        <v>1164.013527686162</v>
       </c>
       <c r="AD6" t="n">
-        <v>857608.0654808229</v>
+        <v>940494.7705270143</v>
       </c>
       <c r="AE6" t="n">
-        <v>1173417.190188451</v>
+        <v>1286826.436736</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.599752859603014e-06</v>
+        <v>2.363444167151005e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.0390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1061427.900458235</v>
+        <v>1164013.527686162</v>
       </c>
     </row>
     <row r="7">
@@ -28854,28 +28854,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>806.1012964374437</v>
+        <v>889.0732528296556</v>
       </c>
       <c r="AB7" t="n">
-        <v>1102.943356465022</v>
+        <v>1216.46924766522</v>
       </c>
       <c r="AC7" t="n">
-        <v>997.6799905147227</v>
+        <v>1100.371129993363</v>
       </c>
       <c r="AD7" t="n">
-        <v>806101.2964374437</v>
+        <v>889073.2528296557</v>
       </c>
       <c r="AE7" t="n">
-        <v>1102943.356465022</v>
+        <v>1216469.24766522</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.628803465548405e-06</v>
+        <v>2.40636297474162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.68098958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>997679.9905147227</v>
+        <v>1100371.129993363</v>
       </c>
     </row>
     <row r="8">
@@ -28960,28 +28960,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>787.1723679979438</v>
+        <v>870.1443243901556</v>
       </c>
       <c r="AB8" t="n">
-        <v>1077.043961488713</v>
+        <v>1190.56985268891</v>
       </c>
       <c r="AC8" t="n">
-        <v>974.2523974449234</v>
+        <v>1076.943536923563</v>
       </c>
       <c r="AD8" t="n">
-        <v>787172.3679979438</v>
+        <v>870144.3243901556</v>
       </c>
       <c r="AE8" t="n">
-        <v>1077043.961488713</v>
+        <v>1190569.85268891</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.638355698689771e-06</v>
+        <v>2.420475260627347e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.56705729166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>974252.3974449234</v>
+        <v>1076943.536923563</v>
       </c>
     </row>
     <row r="9">
@@ -29066,28 +29066,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>790.3669043723328</v>
+        <v>873.3388607645446</v>
       </c>
       <c r="AB9" t="n">
-        <v>1081.41486708915</v>
+        <v>1194.940758289348</v>
       </c>
       <c r="AC9" t="n">
-        <v>978.2061499494594</v>
+        <v>1080.897289428099</v>
       </c>
       <c r="AD9" t="n">
-        <v>790366.9043723327</v>
+        <v>873338.8607645446</v>
       </c>
       <c r="AE9" t="n">
-        <v>1081414.86708915</v>
+        <v>1194940.758289348</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.640325231296238e-06</v>
+        <v>2.423385010294508e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.541015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>978206.1499494594</v>
+        <v>1080897.289428099</v>
       </c>
     </row>
   </sheetData>
@@ -29363,28 +29363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2887.284764752317</v>
+        <v>3057.779080711879</v>
       </c>
       <c r="AB2" t="n">
-        <v>3950.510393148279</v>
+        <v>4183.78823792253</v>
       </c>
       <c r="AC2" t="n">
-        <v>3573.479225802218</v>
+        <v>3784.493360478718</v>
       </c>
       <c r="AD2" t="n">
-        <v>2887284.764752317</v>
+        <v>3057779.080711879</v>
       </c>
       <c r="AE2" t="n">
-        <v>3950510.393148279</v>
+        <v>4183788.237922531</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.015798783299035e-07</v>
+        <v>1.164029462862201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.53841145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3573479.225802218</v>
+        <v>3784493.360478718</v>
       </c>
     </row>
     <row r="3">
@@ -29469,28 +29469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1489.160790771345</v>
+        <v>1600.037567700532</v>
       </c>
       <c r="AB3" t="n">
-        <v>2037.535491070772</v>
+        <v>2189.241988803456</v>
       </c>
       <c r="AC3" t="n">
-        <v>1843.075963502</v>
+        <v>1980.303806012483</v>
       </c>
       <c r="AD3" t="n">
-        <v>1489160.790771345</v>
+        <v>1600037.567700532</v>
       </c>
       <c r="AE3" t="n">
-        <v>2037535.491070773</v>
+        <v>2189241.988803456</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.204220274180949e-06</v>
+        <v>1.74873137015761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1843075.963502</v>
+        <v>1980303.806012483</v>
       </c>
     </row>
     <row r="4">
@@ -29575,28 +29575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1222.138841557985</v>
+        <v>1324.401294791894</v>
       </c>
       <c r="AB4" t="n">
-        <v>1672.184279980057</v>
+        <v>1812.104279995721</v>
       </c>
       <c r="AC4" t="n">
-        <v>1512.593359224137</v>
+        <v>1639.159590817259</v>
       </c>
       <c r="AD4" t="n">
-        <v>1222138.841557985</v>
+        <v>1324401.294791894</v>
       </c>
       <c r="AE4" t="n">
-        <v>1672184.279980057</v>
+        <v>1812104.279995721</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358519893236758e-06</v>
+        <v>1.972800496073786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.73763020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1512593.359224137</v>
+        <v>1639159.590817259</v>
       </c>
     </row>
     <row r="5">
@@ -29681,28 +29681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1108.395451516306</v>
+        <v>1202.043670563487</v>
       </c>
       <c r="AB5" t="n">
-        <v>1516.555555720816</v>
+        <v>1644.689180489009</v>
       </c>
       <c r="AC5" t="n">
-        <v>1371.817621981911</v>
+        <v>1487.722353438899</v>
       </c>
       <c r="AD5" t="n">
-        <v>1108395.451516306</v>
+        <v>1202043.670563487</v>
       </c>
       <c r="AE5" t="n">
-        <v>1516555.555720816</v>
+        <v>1644689.180489009</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438991035278165e-06</v>
+        <v>2.089658195198581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.46809895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1371817.621981911</v>
+        <v>1487722.353438899</v>
       </c>
     </row>
     <row r="6">
@@ -29787,28 +29787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1035.894872013748</v>
+        <v>1129.62834240695</v>
       </c>
       <c r="AB6" t="n">
-        <v>1417.357064345588</v>
+        <v>1545.60733376643</v>
       </c>
       <c r="AC6" t="n">
-        <v>1282.086495397577</v>
+        <v>1398.096739105278</v>
       </c>
       <c r="AD6" t="n">
-        <v>1035894.872013748</v>
+        <v>1129628.342406949</v>
       </c>
       <c r="AE6" t="n">
-        <v>1417357.064345588</v>
+        <v>1545607.333766429</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488336546907329e-06</v>
+        <v>2.161316218246805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.75520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1282086.495397578</v>
+        <v>1398096.739105278</v>
       </c>
     </row>
     <row r="7">
@@ -29893,28 +29893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>987.698476113464</v>
+        <v>1072.90305317451</v>
       </c>
       <c r="AB7" t="n">
-        <v>1351.412629199896</v>
+        <v>1467.993290495465</v>
       </c>
       <c r="AC7" t="n">
-        <v>1222.435704588595</v>
+        <v>1327.890071192101</v>
       </c>
       <c r="AD7" t="n">
-        <v>987698.476113464</v>
+        <v>1072903.05317451</v>
       </c>
       <c r="AE7" t="n">
-        <v>1351412.629199896</v>
+        <v>1467993.290495465</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.523447776335773e-06</v>
+        <v>2.212303657723425e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.27669270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1222435.704588595</v>
+        <v>1327890.071192101</v>
       </c>
     </row>
     <row r="8">
@@ -29999,28 +29999,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>943.3742381875921</v>
+        <v>1037.022367726222</v>
       </c>
       <c r="AB8" t="n">
-        <v>1290.76625142235</v>
+        <v>1418.899753720995</v>
       </c>
       <c r="AC8" t="n">
-        <v>1167.577331988412</v>
+        <v>1283.481952664174</v>
       </c>
       <c r="AD8" t="n">
-        <v>943374.2381875921</v>
+        <v>1037022.367726222</v>
       </c>
       <c r="AE8" t="n">
-        <v>1290766.25142235</v>
+        <v>1418899.753720995</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.548500113009041e-06</v>
+        <v>2.248683884809446e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1167577.331988412</v>
+        <v>1283481.952664174</v>
       </c>
     </row>
     <row r="9">
@@ -30105,28 +30105,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>908.6244220630002</v>
+        <v>993.9142504700667</v>
       </c>
       <c r="AB9" t="n">
-        <v>1243.220019946993</v>
+        <v>1359.917325895212</v>
       </c>
       <c r="AC9" t="n">
-        <v>1124.568846113509</v>
+        <v>1230.128724967726</v>
       </c>
       <c r="AD9" t="n">
-        <v>908624.4220630003</v>
+        <v>993914.2504700667</v>
       </c>
       <c r="AE9" t="n">
-        <v>1243220.019946994</v>
+        <v>1359917.325895212</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.568333212875378e-06</v>
+        <v>2.277484897919213e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.697265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1124568.846113509</v>
+        <v>1230128.724967726</v>
       </c>
     </row>
     <row r="10">
@@ -30211,28 +30211,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>880.1786361059771</v>
+        <v>965.4684645130436</v>
       </c>
       <c r="AB10" t="n">
-        <v>1204.299240661087</v>
+        <v>1320.996546609305</v>
       </c>
       <c r="AC10" t="n">
-        <v>1089.362611376992</v>
+        <v>1194.92249023121</v>
       </c>
       <c r="AD10" t="n">
-        <v>880178.6361059771</v>
+        <v>965468.4645130436</v>
       </c>
       <c r="AE10" t="n">
-        <v>1204299.240661087</v>
+        <v>1320996.546609305</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.582852180720113e-06</v>
+        <v>2.298568893162248e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.51497395833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1089362.611376992</v>
+        <v>1194922.49023121</v>
       </c>
     </row>
     <row r="11">
@@ -30317,28 +30317,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>870.4988146037862</v>
+        <v>955.6180508102605</v>
       </c>
       <c r="AB11" t="n">
-        <v>1191.054881838204</v>
+        <v>1307.518776011575</v>
       </c>
       <c r="AC11" t="n">
-        <v>1077.382275571591</v>
+        <v>1182.731019143158</v>
       </c>
       <c r="AD11" t="n">
-        <v>870498.8146037862</v>
+        <v>955618.0508102605</v>
       </c>
       <c r="AE11" t="n">
-        <v>1191054.881838204</v>
+        <v>1307518.776011575</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.587122465380329e-06</v>
+        <v>2.304770068233729e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.462890625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1077382.275571591</v>
+        <v>1182731.019143158</v>
       </c>
     </row>
     <row r="12">
@@ -30423,28 +30423,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>868.3495640339465</v>
+        <v>953.4688002404207</v>
       </c>
       <c r="AB12" t="n">
-        <v>1188.114182390306</v>
+        <v>1304.578076563677</v>
       </c>
       <c r="AC12" t="n">
-        <v>1074.722232351703</v>
+        <v>1180.07097592327</v>
       </c>
       <c r="AD12" t="n">
-        <v>868349.5640339465</v>
+        <v>953468.8002404207</v>
       </c>
       <c r="AE12" t="n">
-        <v>1188114.182390306</v>
+        <v>1304578.076563677</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.589494845747115e-06</v>
+        <v>2.308215165495663e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.43359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1074722.232351703</v>
+        <v>1180070.97592327</v>
       </c>
     </row>
   </sheetData>
@@ -30720,28 +30720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.578809240536</v>
+        <v>618.8815255376487</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.0660666386075</v>
+        <v>846.7810063665605</v>
       </c>
       <c r="AC2" t="n">
-        <v>660.3895858927781</v>
+        <v>765.9654155835419</v>
       </c>
       <c r="AD2" t="n">
-        <v>533578.8092405359</v>
+        <v>618881.5255376487</v>
       </c>
       <c r="AE2" t="n">
-        <v>730066.0666386075</v>
+        <v>846781.0063665605</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638559731252191e-06</v>
+        <v>2.731381448178685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.22200520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>660389.5858927781</v>
+        <v>765965.415583542</v>
       </c>
     </row>
   </sheetData>
@@ -31017,28 +31017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1226.262417331925</v>
+        <v>1337.372650138776</v>
       </c>
       <c r="AB2" t="n">
-        <v>1677.826338273286</v>
+        <v>1829.852260637136</v>
       </c>
       <c r="AC2" t="n">
-        <v>1517.696947392539</v>
+        <v>1655.213729095704</v>
       </c>
       <c r="AD2" t="n">
-        <v>1226262.417331925</v>
+        <v>1337372.650138776</v>
       </c>
       <c r="AE2" t="n">
-        <v>1677826.338273285</v>
+        <v>1829852.260637136</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266996994894282e-06</v>
+        <v>1.928251116231283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.85221354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1517696.947392538</v>
+        <v>1655213.729095704</v>
       </c>
     </row>
     <row r="3">
@@ -31123,28 +31123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>834.9225968120174</v>
+        <v>922.2905475459921</v>
       </c>
       <c r="AB3" t="n">
-        <v>1142.377931143548</v>
+        <v>1261.918615739728</v>
       </c>
       <c r="AC3" t="n">
-        <v>1033.350984732704</v>
+        <v>1141.482874167429</v>
       </c>
       <c r="AD3" t="n">
-        <v>834922.5968120175</v>
+        <v>922290.5475459921</v>
       </c>
       <c r="AE3" t="n">
-        <v>1142377.931143548</v>
+        <v>1261918.615739728</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574679841794287e-06</v>
+        <v>2.396515678318629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.60481770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1033350.984732704</v>
+        <v>1141482.874167429</v>
       </c>
     </row>
     <row r="4">
@@ -31229,28 +31229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>721.8405068039475</v>
+        <v>801.1806652160856</v>
       </c>
       <c r="AB4" t="n">
-        <v>987.6540267647894</v>
+        <v>1096.210731745031</v>
       </c>
       <c r="AC4" t="n">
-        <v>893.3937126314897</v>
+        <v>991.5899180487097</v>
       </c>
       <c r="AD4" t="n">
-        <v>721840.5068039475</v>
+        <v>801180.6652160856</v>
       </c>
       <c r="AE4" t="n">
-        <v>987654.0267647894</v>
+        <v>1096210.731745031</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.683685687350233e-06</v>
+        <v>2.562412396476612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.205078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>893393.7126314897</v>
+        <v>991589.9180487097</v>
       </c>
     </row>
     <row r="5">
@@ -31335,28 +31335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>686.6491820167657</v>
+        <v>773.846451041597</v>
       </c>
       <c r="AB5" t="n">
-        <v>939.5037036592898</v>
+        <v>1058.810854011075</v>
       </c>
       <c r="AC5" t="n">
-        <v>849.8387887837761</v>
+        <v>957.7594321546239</v>
       </c>
       <c r="AD5" t="n">
-        <v>686649.1820167657</v>
+        <v>773846.4510415969</v>
       </c>
       <c r="AE5" t="n">
-        <v>939503.7036592899</v>
+        <v>1058810.854011075</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.71002267016912e-06</v>
+        <v>2.60249482502485e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>849838.7887837761</v>
+        <v>957759.4321546239</v>
       </c>
     </row>
     <row r="6">
@@ -31441,28 +31441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>690.1768479887052</v>
+        <v>777.3741170135366</v>
       </c>
       <c r="AB6" t="n">
-        <v>944.3304118717365</v>
+        <v>1063.637562223521</v>
       </c>
       <c r="AC6" t="n">
-        <v>854.2048427387546</v>
+        <v>962.1254861096021</v>
       </c>
       <c r="AD6" t="n">
-        <v>690176.8479887052</v>
+        <v>777374.1170135366</v>
       </c>
       <c r="AE6" t="n">
-        <v>944330.4118717365</v>
+        <v>1063637.562223521</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.710231693842285e-06</v>
+        <v>2.602812939537137e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.892578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>854204.8427387546</v>
+        <v>962125.4861096021</v>
       </c>
     </row>
   </sheetData>
@@ -31738,28 +31738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1666.133639307351</v>
+        <v>1788.541705256799</v>
       </c>
       <c r="AB2" t="n">
-        <v>2279.677549928788</v>
+        <v>2447.16166602356</v>
       </c>
       <c r="AC2" t="n">
-        <v>2062.108324111121</v>
+        <v>2213.60799123124</v>
       </c>
       <c r="AD2" t="n">
-        <v>1666133.639307351</v>
+        <v>1788541.705256799</v>
       </c>
       <c r="AE2" t="n">
-        <v>2279677.549928788</v>
+        <v>2447161.66602356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.085817366262026e-06</v>
+        <v>1.621028357846678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.166015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2062108.32411112</v>
+        <v>2213607.99123124</v>
       </c>
     </row>
     <row r="3">
@@ -31844,28 +31844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1041.990672547258</v>
+        <v>1139.899985529061</v>
       </c>
       <c r="AB3" t="n">
-        <v>1425.697607563275</v>
+        <v>1559.661449039015</v>
       </c>
       <c r="AC3" t="n">
-        <v>1289.631028876595</v>
+        <v>1410.809549341322</v>
       </c>
       <c r="AD3" t="n">
-        <v>1041990.672547258</v>
+        <v>1139899.985529061</v>
       </c>
       <c r="AE3" t="n">
-        <v>1425697.607563275</v>
+        <v>1559661.449039015</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.431858133806749e-06</v>
+        <v>2.137636320281553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.87760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1289631.028876595</v>
+        <v>1410809.549341322</v>
       </c>
     </row>
     <row r="4">
@@ -31950,28 +31950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>897.5173861368628</v>
+        <v>979.1796871757256</v>
       </c>
       <c r="AB4" t="n">
-        <v>1228.02288338501</v>
+        <v>1339.756846352839</v>
       </c>
       <c r="AC4" t="n">
-        <v>1110.822102935686</v>
+        <v>1211.892333297467</v>
       </c>
       <c r="AD4" t="n">
-        <v>897517.3861368628</v>
+        <v>979179.6871757256</v>
       </c>
       <c r="AE4" t="n">
-        <v>1228022.88338501</v>
+        <v>1339756.846352839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.556529407720071e-06</v>
+        <v>2.323759398344015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1110822.102935686</v>
+        <v>1211892.333297467</v>
       </c>
     </row>
     <row r="5">
@@ -32056,28 +32056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>814.5757371705072</v>
+        <v>896.1526973547986</v>
       </c>
       <c r="AB5" t="n">
-        <v>1114.538460141939</v>
+        <v>1226.15565598757</v>
       </c>
       <c r="AC5" t="n">
-        <v>1008.168473770545</v>
+        <v>1109.133081100387</v>
       </c>
       <c r="AD5" t="n">
-        <v>814575.7371705072</v>
+        <v>896152.6973547987</v>
       </c>
       <c r="AE5" t="n">
-        <v>1114538.460141939</v>
+        <v>1226155.65598757</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.623644613289228e-06</v>
+        <v>2.423956406469651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.17252604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1008168.473770545</v>
+        <v>1109133.081100387</v>
       </c>
     </row>
     <row r="6">
@@ -32162,28 +32162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>757.9222845518642</v>
+        <v>839.5844960821762</v>
       </c>
       <c r="AB6" t="n">
-        <v>1037.022706895179</v>
+        <v>1148.75654739346</v>
       </c>
       <c r="AC6" t="n">
-        <v>938.0507152196126</v>
+        <v>1039.120834800168</v>
       </c>
       <c r="AD6" t="n">
-        <v>757922.2845518643</v>
+        <v>839584.4960821762</v>
       </c>
       <c r="AE6" t="n">
-        <v>1037022.706895179</v>
+        <v>1148756.54739346</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.660371824732619e-06</v>
+        <v>2.478786853195073e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.7265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>938050.7152196126</v>
+        <v>1039120.834800168</v>
       </c>
     </row>
     <row r="7">
@@ -32268,28 +32268,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>748.4417419566972</v>
+        <v>830.103953487009</v>
       </c>
       <c r="AB7" t="n">
-        <v>1024.05101026445</v>
+        <v>1135.784850762731</v>
       </c>
       <c r="AC7" t="n">
-        <v>926.3170191094305</v>
+        <v>1027.387138689985</v>
       </c>
       <c r="AD7" t="n">
-        <v>748441.7419566972</v>
+        <v>830103.953487009</v>
       </c>
       <c r="AE7" t="n">
-        <v>1024051.010264451</v>
+        <v>1135784.850762731</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.668119757009718e-06</v>
+        <v>2.490353824148108e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>926317.0191094305</v>
+        <v>1027387.138689985</v>
       </c>
     </row>
     <row r="8">
@@ -32374,28 +32374,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>752.0444380160753</v>
+        <v>833.7066495463871</v>
       </c>
       <c r="AB8" t="n">
-        <v>1028.980377952624</v>
+        <v>1140.714218450905</v>
       </c>
       <c r="AC8" t="n">
-        <v>930.775934863856</v>
+        <v>1031.846054444411</v>
       </c>
       <c r="AD8" t="n">
-        <v>752044.4380160753</v>
+        <v>833706.6495463871</v>
       </c>
       <c r="AE8" t="n">
-        <v>1028980.377952624</v>
+        <v>1140714.218450905</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.668119757009718e-06</v>
+        <v>2.490353824148108e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>930775.9348638561</v>
+        <v>1031846.054444411</v>
       </c>
     </row>
   </sheetData>
